--- a/excel/Employee_import_template.xlsx
+++ b/excel/Employee_import_template.xlsx
@@ -58,6 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,13 +447,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.08984375" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7265625" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.90625" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.08984375" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.81640625" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
